--- a/data/trans_orig/LAWTONB_2R3-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_2R3-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>24584</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17914</v>
+        <v>16829</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34207</v>
+        <v>33944</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1905843602726617</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1388807527244704</v>
+        <v>0.1304652304278231</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2651866154903171</v>
+        <v>0.263150754249377</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>60</v>
@@ -765,19 +765,19 @@
         <v>64184</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52080</v>
+        <v>51186</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>79000</v>
+        <v>79513</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2357869690811467</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1913199508747956</v>
+        <v>0.1880367931083363</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2902158166426186</v>
+        <v>0.2920993108601485</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>87</v>
@@ -786,19 +786,19 @@
         <v>88768</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72971</v>
+        <v>73371</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>105482</v>
+        <v>106175</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2212538848980843</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1818803625112858</v>
+        <v>0.1828776214943705</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2629145817802327</v>
+        <v>0.264642181162041</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>104407</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>94784</v>
+        <v>95047</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>111077</v>
+        <v>112162</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8094156397273383</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7348133845096828</v>
+        <v>0.7368492457506228</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8611192472755292</v>
+        <v>0.8695347695721769</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>206</v>
@@ -836,19 +836,19 @@
         <v>208028</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>193212</v>
+        <v>192699</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>220132</v>
+        <v>221026</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7642130309188533</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7097841833573814</v>
+        <v>0.7079006891398515</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8086800491252042</v>
+        <v>0.8119632068916637</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>318</v>
@@ -857,19 +857,19 @@
         <v>312435</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>295721</v>
+        <v>295028</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>328232</v>
+        <v>327832</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7787461151019157</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7370854182197671</v>
+        <v>0.7353578188379593</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8181196374887142</v>
+        <v>0.8171223785056297</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>23577</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15462</v>
+        <v>15843</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33894</v>
+        <v>33865</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1450419159927482</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09511932609369028</v>
+        <v>0.09746233852009994</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2085090743240684</v>
+        <v>0.2083324327671129</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -982,19 +982,19 @@
         <v>29001</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20355</v>
+        <v>19417</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40563</v>
+        <v>39866</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1424449073625065</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09997490217195062</v>
+        <v>0.09536856473459746</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1992334953666171</v>
+        <v>0.1958079790998906</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -1003,19 +1003,19 @@
         <v>52579</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38814</v>
+        <v>40969</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>66013</v>
+        <v>67721</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1435978629860872</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1060059052720683</v>
+        <v>0.111889548677565</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.180288692226386</v>
+        <v>0.184951929922306</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>138978</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>128661</v>
+        <v>128690</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>147093</v>
+        <v>146712</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8549580840072517</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7914909256759313</v>
+        <v>0.7916675672328874</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9048806739063098</v>
+        <v>0.9025376614799003</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>173</v>
@@ -1053,19 +1053,19 @@
         <v>174596</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>163034</v>
+        <v>163731</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>183242</v>
+        <v>184180</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8575550926374935</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8007665046333831</v>
+        <v>0.8041920209001091</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9000250978280494</v>
+        <v>0.9046314352654021</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>319</v>
@@ -1074,19 +1074,19 @@
         <v>313574</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>300140</v>
+        <v>298432</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>327339</v>
+        <v>325184</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8564021370139128</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8197113077736141</v>
+        <v>0.8150480700776939</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8939940947279317</v>
+        <v>0.8881104513224348</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>11962</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6314</v>
+        <v>6512</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19912</v>
+        <v>20185</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08254469976336291</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04357307167758969</v>
+        <v>0.04493722354978324</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.137406838552861</v>
+        <v>0.1392854917974377</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -1199,19 +1199,19 @@
         <v>22442</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14872</v>
+        <v>14462</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32976</v>
+        <v>33671</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1536424504953365</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.101813523312638</v>
+        <v>0.0990094192483712</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2257598987494086</v>
+        <v>0.2305194194996384</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -1220,19 +1220,19 @@
         <v>34404</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24540</v>
+        <v>24256</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48151</v>
+        <v>46600</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1182341656711589</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08433458733667802</v>
+        <v>0.08335983946063304</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1654748196374867</v>
+        <v>0.1601458984541532</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>132954</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>125004</v>
+        <v>124731</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>138602</v>
+        <v>138404</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9174553002366371</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8625931614471394</v>
+        <v>0.8607145082025619</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9564269283224115</v>
+        <v>0.9550627764502168</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>120</v>
@@ -1270,19 +1270,19 @@
         <v>123625</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>113091</v>
+        <v>112396</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>131195</v>
+        <v>131605</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8463575495046635</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7742401012505916</v>
+        <v>0.7694805805003616</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8981864766873621</v>
+        <v>0.9009905807516289</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>252</v>
@@ -1291,19 +1291,19 @@
         <v>256580</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>242833</v>
+        <v>244384</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>266444</v>
+        <v>266728</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8817658343288411</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.834525180362513</v>
+        <v>0.8398541015458468</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.915665412663322</v>
+        <v>0.9166401605393674</v>
       </c>
     </row>
     <row r="12">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7156</v>
+        <v>6270</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03810908671824758</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1450309824854568</v>
+        <v>0.1270720252147772</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1416,19 +1416,19 @@
         <v>5721</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2074</v>
+        <v>2047</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11180</v>
+        <v>11956</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1458221991152628</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05285521141386306</v>
+        <v>0.05218538242638517</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.284959773185021</v>
+        <v>0.3047328123532115</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1437,19 +1437,19 @@
         <v>7602</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3232</v>
+        <v>3045</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14485</v>
+        <v>14270</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08582050830715089</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03649244754111969</v>
+        <v>0.03437388576418156</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1635295108197281</v>
+        <v>0.1611047898161344</v>
       </c>
     </row>
     <row r="14">
@@ -1466,7 +1466,7 @@
         <v>47462</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>42186</v>
+        <v>43072</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>49342</v>
@@ -1475,7 +1475,7 @@
         <v>0.9618909132817525</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8549690175145426</v>
+        <v>0.8729279747852222</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1487,19 +1487,19 @@
         <v>33514</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28055</v>
+        <v>27279</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37161</v>
+        <v>37188</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8541778008847373</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7150402268149791</v>
+        <v>0.6952671876467892</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9471447885861369</v>
+        <v>0.9478146175736148</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>84</v>
@@ -1508,19 +1508,19 @@
         <v>80974</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>74091</v>
+        <v>74306</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>85344</v>
+        <v>85531</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9141794916928491</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8364704891802718</v>
+        <v>0.838895210183866</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9635075524588802</v>
+        <v>0.9656261142358185</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>62003</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>49164</v>
+        <v>49777</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>76922</v>
+        <v>77810</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1276304681249469</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1012006265851122</v>
+        <v>0.1024626173776348</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1583393957768921</v>
+        <v>0.1601673574075003</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>112</v>
@@ -1633,19 +1633,19 @@
         <v>121349</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>102821</v>
+        <v>101076</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>142388</v>
+        <v>141552</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1835528775710322</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1555270452518135</v>
+        <v>0.152887769839622</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2153772097884268</v>
+        <v>0.2141124340923495</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>178</v>
@@ -1654,19 +1654,19 @@
         <v>183352</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>156925</v>
+        <v>159400</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>208036</v>
+        <v>209431</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1598655777942086</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1368238534456122</v>
+        <v>0.1389814623451137</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1813873196547643</v>
+        <v>0.1826034207182883</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>423801</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>408882</v>
+        <v>407994</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>436640</v>
+        <v>436027</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8723695318750531</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.841660604223108</v>
+        <v>0.8398326425924996</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8987993734148878</v>
+        <v>0.8975373826223652</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>533</v>
@@ -1704,19 +1704,19 @@
         <v>539763</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>518724</v>
+        <v>519560</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>558291</v>
+        <v>560036</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8164471224289679</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7846227902115732</v>
+        <v>0.7858875659076505</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8444729547481865</v>
+        <v>0.8471122301603781</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>973</v>
@@ -1725,19 +1725,19 @@
         <v>963564</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>938880</v>
+        <v>937485</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>989991</v>
+        <v>987516</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8401344222057914</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8186126803452357</v>
+        <v>0.8173965792817117</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8631761465543879</v>
+        <v>0.8610185376548863</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>39587</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28598</v>
+        <v>28840</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50397</v>
+        <v>51293</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2878373733363757</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2079371065069536</v>
+        <v>0.2096916697855641</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.366437919316314</v>
+        <v>0.3729521511718249</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -2090,19 +2090,19 @@
         <v>71526</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>59047</v>
+        <v>58832</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>87082</v>
+        <v>88053</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3316993100499291</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2738299442828227</v>
+        <v>0.2728325109121716</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4038429176535495</v>
+        <v>0.4083442806662517</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>102</v>
@@ -2111,19 +2111,19 @@
         <v>111113</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>93549</v>
+        <v>93584</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>128950</v>
+        <v>129442</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3146182463538884</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.26488669324377</v>
+        <v>0.2649844606505946</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3651254656230456</v>
+        <v>0.3665184625950096</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>97946</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>87136</v>
+        <v>86240</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>108935</v>
+        <v>108693</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7121626266636243</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6335620806836864</v>
+        <v>0.627047848828175</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7920628934930473</v>
+        <v>0.7903083302144357</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>135</v>
@@ -2161,19 +2161,19 @@
         <v>144108</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>128552</v>
+        <v>127581</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>156587</v>
+        <v>156802</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6683006899500709</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5961570823464505</v>
+        <v>0.5916557193337479</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7261700557171772</v>
+        <v>0.7271674890878284</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>222</v>
@@ -2182,19 +2182,19 @@
         <v>242054</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>224217</v>
+        <v>223725</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>259618</v>
+        <v>259583</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6853817536461116</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6348745343769544</v>
+        <v>0.6334815374049902</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7351133067562301</v>
+        <v>0.7350155393494053</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>34411</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23366</v>
+        <v>23581</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45933</v>
+        <v>46827</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1995211280751081</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1354804793549224</v>
+        <v>0.136722865257103</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2663261024964189</v>
+        <v>0.2715074073519966</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>62</v>
@@ -2307,19 +2307,19 @@
         <v>66245</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52702</v>
+        <v>53395</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>81561</v>
+        <v>83042</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2681264800645129</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2133114165851479</v>
+        <v>0.2161160703578568</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3301150911575835</v>
+        <v>0.3361100171316441</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>91</v>
@@ -2328,19 +2328,19 @@
         <v>100656</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83369</v>
+        <v>84063</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>118888</v>
+        <v>120359</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2399231033306879</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1987180454472716</v>
+        <v>0.2003722298638802</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2833801182662053</v>
+        <v>0.2868855994030584</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>138059</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>126537</v>
+        <v>125643</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>149104</v>
+        <v>148889</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8004788719248919</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.733673897503581</v>
+        <v>0.7284925926480034</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8645195206450776</v>
+        <v>0.8632771347428969</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>174</v>
@@ -2378,19 +2378,19 @@
         <v>180822</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>165506</v>
+        <v>164025</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>194365</v>
+        <v>193672</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7318735199354871</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6698849088424165</v>
+        <v>0.6638899828683558</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7866885834148521</v>
+        <v>0.7838839296421433</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>302</v>
@@ -2399,19 +2399,19 @@
         <v>318880</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>300648</v>
+        <v>299177</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>336167</v>
+        <v>335473</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7600768966693121</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7166198817337947</v>
+        <v>0.7131144005969416</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8012819545527282</v>
+        <v>0.7996277701361199</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>29753</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19782</v>
+        <v>20385</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41879</v>
+        <v>41446</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1789825480945629</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1189987980951295</v>
+        <v>0.1226289284124477</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2519273092695825</v>
+        <v>0.2493197570311674</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -2524,19 +2524,19 @@
         <v>38159</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26834</v>
+        <v>27161</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50634</v>
+        <v>50980</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.198671863219735</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1397088566639627</v>
+        <v>0.1414130638364782</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2636206712664527</v>
+        <v>0.2654245290338194</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -2545,19 +2545,19 @@
         <v>67912</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52617</v>
+        <v>53216</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84476</v>
+        <v>84951</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1895370635195421</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1468505991598048</v>
+        <v>0.1485224275026865</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2357647043820882</v>
+        <v>0.2370903196583919</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>136482</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>124356</v>
+        <v>124789</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>146453</v>
+        <v>145850</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8210174519054371</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7480726907304165</v>
+        <v>0.7506802429688326</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8810012019048705</v>
+        <v>0.8773710715875521</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>146</v>
@@ -2595,19 +2595,19 @@
         <v>153912</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>141437</v>
+        <v>141091</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165237</v>
+        <v>164910</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8013281367802649</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7363793287335474</v>
+        <v>0.7345754709661806</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8602911433360372</v>
+        <v>0.858586936163522</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>271</v>
@@ -2616,19 +2616,19 @@
         <v>290394</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>273830</v>
+        <v>273355</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>305689</v>
+        <v>305090</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8104629364804579</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7642352956179118</v>
+        <v>0.7629096803416081</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8531494008401953</v>
+        <v>0.8514775724973136</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>12649</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6809</v>
+        <v>7041</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21090</v>
+        <v>20485</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1619639706620122</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08718306858066381</v>
+        <v>0.09015409669666202</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2700474576328457</v>
+        <v>0.2623038749998507</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -2741,19 +2741,19 @@
         <v>17415</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10886</v>
+        <v>10703</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26947</v>
+        <v>26459</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2047663724579706</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1279914351360833</v>
+        <v>0.1258457802107358</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3168351795551828</v>
+        <v>0.3111045167953629</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -2762,19 +2762,19 @@
         <v>30064</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20886</v>
+        <v>20433</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41803</v>
+        <v>41142</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1842772951279075</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1280188684844724</v>
+        <v>0.125242898645096</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2562289613272421</v>
+        <v>0.2521772845291957</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>65448</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57007</v>
+        <v>57612</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>71288</v>
+        <v>71056</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8380360293379878</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7299525423671542</v>
+        <v>0.7376961250001495</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9128169314193361</v>
+        <v>0.9098459033033379</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>59</v>
@@ -2812,19 +2812,19 @@
         <v>67635</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>58103</v>
+        <v>58591</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74164</v>
+        <v>74347</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7952336275420294</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6831648204448174</v>
+        <v>0.688895483204637</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8720085648639168</v>
+        <v>0.8741542197892642</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>116</v>
@@ -2833,19 +2833,19 @@
         <v>133082</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>121343</v>
+        <v>122004</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>142260</v>
+        <v>142713</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8157227048720925</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.743771038672758</v>
+        <v>0.7478227154708043</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8719811315155275</v>
+        <v>0.874757101354904</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>116400</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>95526</v>
+        <v>96739</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>135262</v>
+        <v>136765</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2099824818399268</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1723256319382092</v>
+        <v>0.1745143516874491</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2440085683395099</v>
+        <v>0.2467196801288049</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>177</v>
@@ -2958,19 +2958,19 @@
         <v>193345</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>169279</v>
+        <v>171788</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>219304</v>
+        <v>218988</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2613403398773911</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2288106977104563</v>
+        <v>0.2322018700237753</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2964279917741294</v>
+        <v>0.2960016950564946</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>279</v>
@@ -2979,19 +2979,19 @@
         <v>309746</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>277430</v>
+        <v>277919</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>343013</v>
+        <v>345598</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2393418882103766</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2143718273751925</v>
+        <v>0.2147494683288518</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2650481235304962</v>
+        <v>0.2670453189495432</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>437934</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>419072</v>
+        <v>417569</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>458808</v>
+        <v>457595</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7900175181600732</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7559914316604901</v>
+        <v>0.753280319871195</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8276743680617908</v>
+        <v>0.8254856483125508</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>514</v>
@@ -3029,19 +3029,19 @@
         <v>546476</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>520517</v>
+        <v>520833</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>570542</v>
+        <v>568033</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.738659660122609</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7035720082258705</v>
+        <v>0.7039983049435057</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7711893022895436</v>
+        <v>0.7677981299762249</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>911</v>
@@ -3050,19 +3050,19 @@
         <v>984409</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>951142</v>
+        <v>948557</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1016725</v>
+        <v>1016236</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7606581117896234</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7349518764695038</v>
+        <v>0.7329546810504559</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7856281726248076</v>
+        <v>0.7852505316711478</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>33261</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24769</v>
+        <v>24963</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44170</v>
+        <v>44799</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1998205412776043</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1488020270475675</v>
+        <v>0.1499671110076074</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2653603107891195</v>
+        <v>0.2691365976162096</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -3415,19 +3415,19 @@
         <v>83724</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>68258</v>
+        <v>68115</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>99575</v>
+        <v>102339</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3215474123544816</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.262149675100327</v>
+        <v>0.2616003707889406</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3824264805270288</v>
+        <v>0.3930408780972177</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>104</v>
@@ -3436,19 +3436,19 @@
         <v>116985</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>98897</v>
+        <v>99852</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>136067</v>
+        <v>137870</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2740768300807519</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2316993430204798</v>
+        <v>0.2339371972963274</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3187830203035852</v>
+        <v>0.3230073900462785</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>133193</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>122284</v>
+        <v>121655</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>141685</v>
+        <v>141491</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8001794587223957</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7346396892108807</v>
+        <v>0.7308634023837906</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8511979729524325</v>
+        <v>0.850032888992393</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>154</v>
@@ -3486,19 +3486,19 @@
         <v>176654</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>160803</v>
+        <v>158039</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>192120</v>
+        <v>192263</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6784525876455184</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6175735194729711</v>
+        <v>0.6069591219027822</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7378503248996731</v>
+        <v>0.7383996292110599</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>293</v>
@@ -3507,19 +3507,19 @@
         <v>309847</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>290765</v>
+        <v>288962</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>327935</v>
+        <v>326980</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7259231699192481</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6812169796964148</v>
+        <v>0.6769926099537215</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7683006569795203</v>
+        <v>0.7660628027036728</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>22988</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15899</v>
+        <v>15165</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31978</v>
+        <v>31792</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1354096138732588</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09365269977134767</v>
+        <v>0.08933203829313009</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1883699083335905</v>
+        <v>0.1872703794410348</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -3632,19 +3632,19 @@
         <v>46853</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34046</v>
+        <v>33744</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>61224</v>
+        <v>60931</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2121925995582131</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1541896233957391</v>
+        <v>0.1528215333664612</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2772764854878936</v>
+        <v>0.2759512246176259</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -3653,19 +3653,19 @@
         <v>69841</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55212</v>
+        <v>55538</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>86679</v>
+        <v>86233</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1788183177008611</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1413625070602829</v>
+        <v>0.1421984400568111</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2219302738496345</v>
+        <v>0.2207896649393397</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>146775</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>137785</v>
+        <v>137971</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>153864</v>
+        <v>154598</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8645903861267412</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8116300916664095</v>
+        <v>0.8127296205589657</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9063473002286524</v>
+        <v>0.91066796170687</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>151</v>
@@ -3703,19 +3703,19 @@
         <v>173952</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>159581</v>
+        <v>159874</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>186759</v>
+        <v>187061</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.787807400441787</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7227235145121063</v>
+        <v>0.7240487753823746</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8458103766042608</v>
+        <v>0.847178466633539</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>308</v>
@@ -3724,19 +3724,19 @@
         <v>320727</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>303889</v>
+        <v>304335</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>335356</v>
+        <v>335030</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8211816822991389</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7780697261503657</v>
+        <v>0.7792103350606603</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.858637492939717</v>
+        <v>0.857801559943189</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>18755</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12361</v>
+        <v>11862</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29499</v>
+        <v>28312</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.120400932321475</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07935123634607875</v>
+        <v>0.07615062999186398</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1893737924538251</v>
+        <v>0.1817567689731435</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -3849,19 +3849,19 @@
         <v>41836</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30300</v>
+        <v>30302</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57494</v>
+        <v>56273</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2272395289900109</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.164576611267932</v>
+        <v>0.1645924219872389</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3122874589702933</v>
+        <v>0.3056562404973677</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -3870,19 +3870,19 @@
         <v>60591</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46032</v>
+        <v>47671</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77386</v>
+        <v>77998</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1782736570217086</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1354361267317793</v>
+        <v>0.1402599790354233</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2276881066860356</v>
+        <v>0.2294879795737096</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>137016</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>126272</v>
+        <v>127459</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>143410</v>
+        <v>143909</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.879599067678525</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8106262075461752</v>
+        <v>0.8182432310268565</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9206487636539213</v>
+        <v>0.9238493700081359</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>121</v>
@@ -3920,19 +3920,19 @@
         <v>142270</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>126612</v>
+        <v>127833</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>153806</v>
+        <v>153804</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7727604710099891</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6877125410297069</v>
+        <v>0.6943437595026325</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.835423388732068</v>
+        <v>0.8354075780127613</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>266</v>
@@ -3941,19 +3941,19 @@
         <v>279286</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>262491</v>
+        <v>261879</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>293845</v>
+        <v>292206</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8217263429782915</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7723118933139642</v>
+        <v>0.7705120204262899</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8645638732682207</v>
+        <v>0.8597400209645766</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>13281</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8151</v>
+        <v>7158</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21143</v>
+        <v>19667</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1510122688284631</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09268299832861862</v>
+        <v>0.08139668037184969</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2404142383259817</v>
+        <v>0.2236319716529636</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -4066,19 +4066,19 @@
         <v>9803</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4917</v>
+        <v>3851</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18033</v>
+        <v>17634</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09201365612891688</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04615800289458462</v>
+        <v>0.03614321826504013</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1692698158677174</v>
+        <v>0.1655210763322077</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -4087,19 +4087,19 @@
         <v>23084</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14913</v>
+        <v>14977</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33662</v>
+        <v>33075</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1186930648448718</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07667860097213977</v>
+        <v>0.07701096740961284</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1730872742025922</v>
+        <v>0.1700678388548034</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>74664</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>66802</v>
+        <v>68278</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>79794</v>
+        <v>80787</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8489877311715369</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7595857616740185</v>
+        <v>0.7763680283470367</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9073170016713814</v>
+        <v>0.9186033196281504</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>80</v>
@@ -4137,19 +4137,19 @@
         <v>96733</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>88503</v>
+        <v>88902</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>101619</v>
+        <v>102685</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9079863438710831</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8307301841322828</v>
+        <v>0.8344789236677927</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9538419971054155</v>
+        <v>0.9638567817349599</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>157</v>
@@ -4158,19 +4158,19 @@
         <v>171397</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>160819</v>
+        <v>161406</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>179568</v>
+        <v>179504</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8813069351551281</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8269127257974079</v>
+        <v>0.8299321611451964</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9233213990278603</v>
+        <v>0.9229890325903871</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>88284</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>73413</v>
+        <v>72735</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>105788</v>
+        <v>104380</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1522317515691928</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1265891812119351</v>
+        <v>0.1254201155372864</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1824130204741776</v>
+        <v>0.179985581865851</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>144</v>
@@ -4283,19 +4283,19 @@
         <v>182216</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>157298</v>
+        <v>157087</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>210108</v>
+        <v>212257</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2360845324083767</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2038002593307093</v>
+        <v>0.2035271149901182</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2722227264036102</v>
+        <v>0.2750074483892354</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>242</v>
@@ -4304,19 +4304,19 @@
         <v>270500</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>239340</v>
+        <v>240164</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>300166</v>
+        <v>302692</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2001098510353886</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1770583749625568</v>
+        <v>0.1776675499170874</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2220561777538166</v>
+        <v>0.2239244632100381</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>491650</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>474146</v>
+        <v>475554</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>506521</v>
+        <v>507199</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8477682484308072</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8175869795258224</v>
+        <v>0.820014418134149</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.873410818788065</v>
+        <v>0.8745798844627136</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>506</v>
@@ -4354,19 +4354,19 @@
         <v>589608</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>561716</v>
+        <v>559567</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>614526</v>
+        <v>614737</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7639154675916233</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7277772735963899</v>
+        <v>0.7249925516107648</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7961997406692908</v>
+        <v>0.7964728850098818</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1024</v>
@@ -4375,19 +4375,19 @@
         <v>1081258</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1051592</v>
+        <v>1049066</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1112418</v>
+        <v>1111594</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7998901489646114</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7779438222461833</v>
+        <v>0.7760755367899622</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8229416250374432</v>
+        <v>0.8223324500829129</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>20133</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14591</v>
+        <v>14768</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27311</v>
+        <v>26479</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.306126497068985</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2218497847227665</v>
+        <v>0.2245535981639684</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4152684041234436</v>
+        <v>0.4026119169677662</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>116</v>
@@ -4740,19 +4740,19 @@
         <v>62737</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53756</v>
+        <v>54094</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>71742</v>
+        <v>71406</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4435507680305468</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3800571126399243</v>
+        <v>0.3824436671055932</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5072167268910667</v>
+        <v>0.5048368303961972</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>146</v>
@@ -4761,19 +4761,19 @@
         <v>82871</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73194</v>
+        <v>71885</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>94642</v>
+        <v>93545</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3999326961740023</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3532306913427747</v>
+        <v>0.3469169679109547</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4567412798277893</v>
+        <v>0.4514471474363301</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>45635</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>38457</v>
+        <v>39289</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>51177</v>
+        <v>51000</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6938735029310151</v>
+        <v>0.693873502931015</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5847315958765564</v>
+        <v>0.5973880830322341</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7781502152772335</v>
+        <v>0.7754464018360318</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>147</v>
@@ -4811,19 +4811,19 @@
         <v>78706</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>69701</v>
+        <v>70037</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>87687</v>
+        <v>87349</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5564492319694531</v>
+        <v>0.556449231969453</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4927832731089332</v>
+        <v>0.4951631696038026</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6199428873600756</v>
+        <v>0.6175563328944066</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>209</v>
@@ -4832,19 +4832,19 @@
         <v>124341</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>112570</v>
+        <v>113667</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>134018</v>
+        <v>135327</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6000673038259977</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5432587201722096</v>
+        <v>0.5485528525636697</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.646769308657225</v>
+        <v>0.6530830320890454</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>39684</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30250</v>
+        <v>31249</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48608</v>
+        <v>49557</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1992967026631211</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1519198901703492</v>
+        <v>0.1569371579955895</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2441142243166276</v>
+        <v>0.24888145869449</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>179</v>
@@ -4957,19 +4957,19 @@
         <v>92770</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>81371</v>
+        <v>79924</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>105155</v>
+        <v>104364</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3074205502816795</v>
+        <v>0.3074205502816796</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2696476981283262</v>
+        <v>0.264853724255488</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3484628914507026</v>
+        <v>0.3458411742883153</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>244</v>
@@ -4978,19 +4978,19 @@
         <v>132454</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>117582</v>
+        <v>118401</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>146570</v>
+        <v>147763</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2644376617651308</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2347477162973282</v>
+        <v>0.2363819664508972</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2926211506293639</v>
+        <v>0.2950020867890485</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>159436</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>150512</v>
+        <v>149563</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>168870</v>
+        <v>167871</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8007032973368789</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7558857756833722</v>
+        <v>0.75111854130551</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8480801098296508</v>
+        <v>0.8430628420044106</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>388</v>
@@ -5028,19 +5028,19 @@
         <v>208998</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>196613</v>
+        <v>197404</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>220397</v>
+        <v>221844</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6925794497183203</v>
+        <v>0.6925794497183205</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6515371085492973</v>
+        <v>0.6541588257116846</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7303523018716739</v>
+        <v>0.735146275744512</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>615</v>
@@ -5049,19 +5049,19 @@
         <v>368434</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>354318</v>
+        <v>353125</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>383306</v>
+        <v>382487</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7355623382348691</v>
+        <v>0.7355623382348692</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7073788493706359</v>
+        <v>0.7049979132109516</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7652522837026718</v>
+        <v>0.7636180335491033</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>26633</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19958</v>
+        <v>19189</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35446</v>
+        <v>34734</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1161435891038251</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0870335946986673</v>
+        <v>0.08368217288455292</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1545750133911632</v>
+        <v>0.151468757424828</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>109</v>
@@ -5174,19 +5174,19 @@
         <v>58995</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48797</v>
+        <v>49623</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69320</v>
+        <v>69814</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2505135429198075</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2072102597160007</v>
+        <v>0.2107162014205356</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2943555337538154</v>
+        <v>0.2964521380351728</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>155</v>
@@ -5195,19 +5195,19 @@
         <v>85628</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>74231</v>
+        <v>74488</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>99278</v>
+        <v>100367</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.184222185378787</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1597025247350216</v>
+        <v>0.1602542692475009</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2135880587536836</v>
+        <v>0.2159313692599977</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>202681</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>193868</v>
+        <v>194580</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>209356</v>
+        <v>210125</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8838564108961749</v>
+        <v>0.8838564108961751</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8454249866088367</v>
+        <v>0.8485312425751727</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9129664053013327</v>
+        <v>0.9163178271154474</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>338</v>
@@ -5245,19 +5245,19 @@
         <v>176502</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>166177</v>
+        <v>165683</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>186700</v>
+        <v>185874</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7494864570801923</v>
+        <v>0.7494864570801925</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7056444662461849</v>
+        <v>0.7035478619648272</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7927897402839994</v>
+        <v>0.7892837985794645</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>621</v>
@@ -5266,19 +5266,19 @@
         <v>379183</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>365533</v>
+        <v>364444</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>390580</v>
+        <v>390323</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8157778146212129</v>
+        <v>0.815777814621213</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7864119412463164</v>
+        <v>0.7840686307400023</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8402974752649782</v>
+        <v>0.8397457307524991</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>26354</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18962</v>
+        <v>18698</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35576</v>
+        <v>35230</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1252837911303573</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09014491047498392</v>
+        <v>0.08888685987014383</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1691252285267743</v>
+        <v>0.1674799182074542</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -5391,19 +5391,19 @@
         <v>35378</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28364</v>
+        <v>27313</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44221</v>
+        <v>43815</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1714041841163362</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1374225264473556</v>
+        <v>0.1323290520564881</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2142500312480143</v>
+        <v>0.2122839979629146</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>103</v>
@@ -5412,19 +5412,19 @@
         <v>61732</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>50800</v>
+        <v>50252</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73931</v>
+        <v>74249</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1481251480885982</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1218943058307228</v>
+        <v>0.1205791031622306</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1773983847429031</v>
+        <v>0.1781611652018252</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>184000</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>174778</v>
+        <v>175124</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>191392</v>
+        <v>191656</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8747162088696427</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8308747714732257</v>
+        <v>0.8325200817925458</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.909855089525016</v>
+        <v>0.9111131401298562</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>327</v>
@@ -5462,19 +5462,19 @@
         <v>171021</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>162178</v>
+        <v>162584</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>178035</v>
+        <v>179086</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8285958158836638</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7857499687519854</v>
+        <v>0.7877160020370854</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8625774735526442</v>
+        <v>0.8676709479435121</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>588</v>
@@ -5483,19 +5483,19 @@
         <v>355021</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>342822</v>
+        <v>342504</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>365953</v>
+        <v>366501</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8518748519114017</v>
+        <v>0.851874851911402</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8226016152570969</v>
+        <v>0.8218388347981745</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8781056941692771</v>
+        <v>0.8794208968377693</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>112805</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>96996</v>
+        <v>98675</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>128761</v>
+        <v>129665</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1601074025791047</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1376700286151144</v>
+        <v>0.140052803653948</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1827538680659153</v>
+        <v>0.1840374149562135</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>470</v>
@@ -5608,19 +5608,19 @@
         <v>249880</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>230637</v>
+        <v>230032</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>270246</v>
+        <v>269473</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2823158751948424</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2605755468808741</v>
+        <v>0.2598920597432475</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3053258164204916</v>
+        <v>0.3044523926724535</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>648</v>
@@ -5629,19 +5629,19 @@
         <v>362685</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>338442</v>
+        <v>338477</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>389984</v>
+        <v>388322</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2281517234582006</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2129012802226083</v>
+        <v>0.2129238004065136</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2453247755155278</v>
+        <v>0.2442791745666995</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>591752</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>575796</v>
+        <v>574892</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>607561</v>
+        <v>605882</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8398925974208953</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8172461319340857</v>
+        <v>0.8159625850437866</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8623299713848857</v>
+        <v>0.8599471963460521</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1200</v>
@@ -5679,19 +5679,19 @@
         <v>635227</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>614861</v>
+        <v>615634</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>654470</v>
+        <v>655075</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7176841248051576</v>
+        <v>0.7176841248051575</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6946741835795086</v>
+        <v>0.6955476073275467</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.739424453119126</v>
+        <v>0.7401079402567526</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2033</v>
@@ -5700,19 +5700,19 @@
         <v>1226979</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1199680</v>
+        <v>1201342</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1251222</v>
+        <v>1251187</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7718482765417993</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7546752244844723</v>
+        <v>0.7557208254333005</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7870987197773921</v>
+        <v>0.7870761995934864</v>
       </c>
     </row>
     <row r="18">
